--- a/Data/Transitions/19371943Translation.xlsx
+++ b/Data/Transitions/19371943Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="663">
   <si>
     <t>id</t>
   </si>
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.996400449943757, 178.0: 0.008755573571139035}</t>
+    <t>{85.0: 0.9963619827194179, 178.0: 0.008801955990220049}</t>
   </si>
   <si>
     <t>{86.0: 1.0}</t>
@@ -223,7 +223,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -250,7 +250,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544}</t>
+    <t>{107.0: 1.0}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -337,7 +337,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,19 +349,19 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.991244426428861}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.40698361611390244, 850.0: 0.001083483836576113}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5930163838860975, 850.0: 0.0015787457807283794}</t>
+    <t>{178.0: 0.99119804400978}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.40681549296858815, 850.0: 0.001085203048932546}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5931845070314118, 850.0: 0.0015823528030181042}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
@@ -373,13 +373,13 @@
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9265587147775086}</t>
+    <t>{202.0: 0.926624203821656}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -388,13 +388,13 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 1.0, 477.0: 0.07756537024829707}</t>
+    <t>{207.0: 1.0, 477.0: 0.07758241758241759}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -403,7 +403,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496}</t>
+    <t>{212.0: 0.9991932230738201}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -430,7 +430,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 503.0: 0.04728284124946513}</t>
+    <t>{222.0: 1.0, 503.0: 0.047506448839208945}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -541,7 +544,7 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{264.0: 1.0}</t>
@@ -556,7 +559,7 @@
     <t>{268.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9974743723072352}</t>
+    <t>{277.0: 0.9974721189591078}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235}</t>
+    <t>{282.0: 0.9971910112359551}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -637,10 +640,10 @@
     <t>{296.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9935198943371306}</t>
-  </si>
-  <si>
-    <t>{298.0: 1.0, 297.0: 0.005448241703813769}</t>
+    <t>{297.0: 0.9934830434602133}</t>
+  </si>
+  <si>
+    <t>{298.0: 1.0, 297.0: 0.005479224606699597}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -673,7 +676,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -703,9 +706,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -718,16 +718,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.9981033392723719}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{402.0: 0.9989634083134653}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.9980654238480479}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -736,7 +736,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -769,7 +769,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -793,10 +793,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -841,13 +841,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.9224346297517029}</t>
+    <t>{477.0: 0.9224175824175824}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -880,13 +880,13 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 1.0, 503.0: 0.007702182284980745}</t>
+    <t>{490.0: 1.0, 503.0: 0.007738607050730868}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.0038666022232962784, 696.0: 0.001007725898555593}</t>
+    <t>{492.0: 1.0, 97.0: 0.0038548024413748794, 696.0: 0.0009791122715404699}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -919,7 +919,7 @@
     <t>{502.0: 1.0}</t>
   </si>
   <si>
-    <t>{503.0: 0.9450149764655541}</t>
+    <t>{503.0: 0.9447549441100602}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -1027,7 +1027,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9980719794344473, 752.0: 0.04920514761544285}</t>
+    <t>{580.0: 0.9981181109418407, 752.0: 0.04937333839726547}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -1069,7 +1069,7 @@
     <t>{593.0: 1.0}</t>
   </si>
   <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{628.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.9963536918869644}</t>
+    <t>{634.0: 0.9964896884598509}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1195,7 +1195,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1225,7 +1225,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658}</t>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1249,10 +1249,10 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9819587628865979}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989922741014444}</t>
+    <t>{695.0: 0.9820117474302497}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990208877284595}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1267,7 +1267,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1351,7 +1351,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9507948523845572, 580.0: 0.0019280205655526992}</t>
+    <t>{752.0: 0.9506266616027346, 580.0: 0.0018818890581593333}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1366,7 +1366,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 1.0, 634.0: 0.0036463081130355514}</t>
+    <t>{757.0: 1.0, 634.0: 0.0035103115401491883}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1405,7 +1405,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1435,13 +1435,13 @@
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
   </si>
   <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1456,7 +1456,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1501,7 +1501,7 @@
     <t>{843.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1519,16 +1519,16 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 1.0, 922.0: 0.0022135194959986377}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.0734412852224914}</t>
+    <t>{852.0: 1.0, 922.0: 0.0022859152452962897}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.07337579617834394}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1540,7 +1540,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1591,10 +1591,10 @@
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
@@ -1609,7 +1609,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1639,7 +1639,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1648,7 +1648,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9977864805040013}</t>
+    <t>{922.0: 0.9977140847547037}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1669,10 +1669,10 @@
     <t>{928.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.9982030043520989, 930.0: 0.002861685214626391}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9971383147853736, 929.0: 0.0017969956479011652}</t>
+    <t>{929.0: 0.9981531979973741, 930.0: 0.002952271608988027}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.997047728391012, 929.0: 0.0018468020026259217}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1693,7 +1693,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1708,7 +1708,7 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
+    <t>{942.0: 0.9907869481765835}</t>
   </si>
   <si>
     <t>{943.0: 1.0}</t>
@@ -1717,7 +1717,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1759,7 +1759,7 @@
     <t>{991.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.9957854406130269}</t>
+    <t>{992.0: 0.9957918898240244}</t>
   </si>
   <si>
     <t>{9.0: 0.9995276334435522, 208.0: 0.0004723665564478035}</t>
@@ -1774,9 +1774,6 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0}</t>
-  </si>
-  <si>
     <t>{145.0: 1.0}</t>
   </si>
   <si>
@@ -1789,13 +1786,13 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.5993060590489727, 180.0: 0.40051465954568, 850.0: 0.00017928140534721575}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9995525727069352, 850.0: 0.0004474272930648769}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.997171812396889, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073768}</t>
+    <t>{179.0: 0.6003432513722297, 180.0: 0.39947793129057657, 850.0: 0.00017881733719363324}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.999552572706935, 850.0: 0.0004474272930648769}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9971607713237904, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944754}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
@@ -1804,7 +1801,7 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.998085701663967, 688.0: 0.001914298336032985}</t>
@@ -1816,16 +1813,16 @@
     <t>{212.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8492496589358798, 503.0: 0.15075034106412005}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.9975617827628104, 297.0: 0.00018045618356780216, 844.0: 0.002257761053621825}</t>
+    <t>{222.0: 0.8489405331510596, 503.0: 0.15105946684894053}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9975636241524386, 297.0: 0.0001786147939395593, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427762, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
   </si>
   <si>
-    <t>{240.0: 0.23802619996893284, 241.0: 0.7619738000310672}</t>
+    <t>{240.0: 0.2380261999689329, 241.0: 0.7619738000310672}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1834,10 +1831,10 @@
     <t>{250.0: 0.9786774628879892, 581.0: 0.021322537112010796}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.987364090508375, 479.0: 0.012356147657862117, 942.0: 0.0002797618337629159}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.987364090508375, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1849,13 +1846,13 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.013922582006117502}</t>
+    <t>{298.0: 0.986078886310905, 297.0: 0.013921113689095125}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 0.9989234081820978, 204.0: 0.001076591817902184}</t>
+    <t>{309.0: 0.9989764585465711, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1870,16 +1867,16 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.9975391498881432, 404.0: 0.0024608501118568234}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597468, 212.0: 0.00016450074025333114}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749248, 431.0: 0.0001868457494158738, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.999281049806884, 431.0: 0.00035663135253636115, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1891,13 +1888,13 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977858, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869782, 503.0: 0.02211302211302211}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9974491964968968, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294479, 503.0: 0.02208588957055215}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9974491964968965, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -1906,7 +1903,7 @@
     <t>{507.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643217, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.988462903798367, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1930,7 +1927,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852506, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972789, 208.0: 0.042517006802721094}</t>
@@ -1942,16 +1939,16 @@
     <t>{696.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9917094354520329, 580.0: 0.008290564547966837}</t>
-  </si>
-  <si>
-    <t>{757.0: 0.9970781592403215, 634.0: 0.0029218407596785976}</t>
-  </si>
-  <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725945, 81.0: 0.0003498542274052478}</t>
+    <t>{752.0: 0.9916798732171154, 580.0: 0.00832012678288431}</t>
+  </si>
+  <si>
+    <t>{757.0: 0.9966315789473681, 634.0: 0.0033684210526315796}</t>
+  </si>
+  <si>
+    <t>{770.0: 0.9801712483100496, 992.0: 0.01982875168995043}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.0003498542274052478}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1966,13 +1963,13 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290921, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.9921089404608596, 202.0: 0.007891059539140204}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940952, 695.0: 0.0072335400059049286}</t>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.9921089404608601, 202.0: 0.007891059539140204}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997019, 695.0: 0.007303622000298107}</t>
   </si>
   <si>
     <t>{886.0: 1.0}</t>
@@ -1984,16 +1981,16 @@
     <t>{896.0: 0.8730158730158731, 209.0: 0.1035923141186299, 400.0: 0.007518796992481203, 432.0: 0.00835421888053467, 895.0: 0.007518796992481203}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418464, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.9941104294478529, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.9992411040530667, 930.0: 0.0007588959469334983}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9932432432432432, 929.0: 0.006756756756756758}</t>
+    <t>{929.0: 0.9992200476637537, 930.0: 0.0007799523362461183}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9930302205281785, 929.0: 0.006969779471821399}</t>
   </si>
   <si>
     <t>{937.0: 0.9949109414758269, 85.0: 0.005089058524173028}</t>
@@ -3213,7 +3210,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>586</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3312,7 +3309,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3389,7 +3386,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3532,7 +3529,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3576,7 +3573,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3587,7 +3584,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3598,7 +3595,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3620,7 +3617,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3664,7 +3661,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3686,7 +3683,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3719,7 +3716,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3730,7 +3727,7 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3741,7 +3738,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3774,7 +3771,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3873,7 +3870,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3917,7 +3914,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3972,7 +3969,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4049,7 +4046,7 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4060,12 +4057,12 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4076,7 +4073,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4087,7 +4084,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4098,7 +4095,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4109,7 +4106,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4120,7 +4117,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4131,29 +4128,29 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>605</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>604</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4164,7 +4161,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4175,7 +4172,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4186,7 +4183,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4197,7 +4194,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4208,7 +4205,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4219,7 +4216,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4230,7 +4227,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4241,7 +4238,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4252,7 +4249,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4263,7 +4260,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4274,29 +4271,29 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>606</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>605</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4307,7 +4304,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4318,7 +4315,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4329,29 +4326,29 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>607</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>606</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4362,7 +4359,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4373,7 +4370,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4384,7 +4381,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4395,7 +4392,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4406,29 +4403,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>608</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>607</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4439,7 +4436,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4450,7 +4447,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4461,29 +4458,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>609</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>608</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4494,7 +4491,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4505,7 +4502,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4516,7 +4513,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4527,7 +4524,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4538,7 +4535,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4549,7 +4546,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4560,7 +4557,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4571,7 +4568,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4582,7 +4579,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4593,7 +4590,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4604,7 +4601,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4615,7 +4612,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4626,40 +4623,40 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>610</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>610</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4670,29 +4667,29 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>612</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>611</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4703,7 +4700,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4714,7 +4711,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4725,7 +4722,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4736,7 +4733,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4747,7 +4744,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4758,29 +4755,29 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>613</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>612</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4791,7 +4788,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4813,7 +4810,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4824,7 +4821,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4835,7 +4832,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4846,7 +4843,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4857,7 +4854,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4868,7 +4865,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -4907,7 +4904,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4929,7 +4926,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4940,7 +4937,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4951,7 +4948,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4962,7 +4959,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4995,7 +4992,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -5116,7 +5113,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5204,7 +5201,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5215,7 +5212,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5226,7 +5223,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5380,7 +5377,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5402,7 +5399,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5523,7 +5520,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5545,7 +5542,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5666,7 +5663,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5710,7 +5707,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6062,7 +6059,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6073,7 +6070,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6150,7 +6147,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6216,7 +6213,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6370,7 +6367,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6590,7 +6587,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6645,7 +6642,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6678,7 +6675,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6788,7 +6785,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6799,7 +6796,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6876,7 +6873,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6887,7 +6884,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6942,7 +6939,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7250,7 +7247,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7305,7 +7302,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7448,7 +7445,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7558,7 +7555,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7580,7 +7577,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7635,7 +7632,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7800,7 +7797,7 @@
         <v>495</v>
       </c>
       <c r="C494" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7866,7 +7863,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7888,7 +7885,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7899,7 +7896,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7943,7 +7940,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8031,7 +8028,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8130,7 +8127,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8141,7 +8138,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8196,7 +8193,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8306,7 +8303,7 @@
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -8339,7 +8336,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -8416,7 +8413,7 @@
         <v>551</v>
       </c>
       <c r="C550" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -8427,7 +8424,7 @@
         <v>552</v>
       </c>
       <c r="C551" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -8504,7 +8501,7 @@
         <v>559</v>
       </c>
       <c r="C558" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -8559,7 +8556,7 @@
         <v>564</v>
       </c>
       <c r="C563" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -8592,7 +8589,7 @@
         <v>567</v>
       </c>
       <c r="C566" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -8746,7 +8743,7 @@
         <v>581</v>
       </c>
       <c r="C580" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
